--- a/Mappings/AbilityToUseToilet - STU3.xlsx
+++ b/Mappings/AbilityToUseToilet - STU3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edelman\Nictiz-STU3-Zib2017\Mappings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D02DBC-362D-4027-A015-8908BEB43228}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F979F7B-D209-42D1-95BA-BF4054277141}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="146">
   <si>
     <t>Subject</t>
   </si>
@@ -462,9 +462,6 @@
     <t>Observation</t>
   </si>
   <si>
-    <t>value for .code is missing</t>
-  </si>
-  <si>
     <t>equal</t>
   </si>
   <si>
@@ -478,7 +475,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
@@ -516,20 +513,13 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,11 +539,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD3D3D3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -618,11 +603,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -666,22 +650,18 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Ongeldig" xfId="1" builtinId="27"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1245,7 +1225,7 @@
                   <a14:compatExt spid="_x0000_s8193"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{742C08B6-FD80-4068-BD23-46F3C58A209C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1312,7 +1292,7 @@
                   <a14:compatExt spid="_x0000_s8194"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E9B6B0D-B384-410F-AE58-6FB37E1E03D3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1379,7 +1359,7 @@
                   <a14:compatExt spid="_x0000_s8195"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A3AEC6C-CA93-4460-A2EA-D725B7A4430F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1446,7 +1426,7 @@
                   <a14:compatExt spid="_x0000_s8196"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A86E65FD-DFB3-4DDE-94A9-55CBDAD005DE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1513,7 +1493,7 @@
                   <a14:compatExt spid="_x0000_s8197"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93002B92-AE16-4EE7-A8B8-DE902E9C464A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1580,7 +1560,7 @@
                   <a14:compatExt spid="_x0000_s8198"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3178E6E3-8AA3-43A2-B019-7154794329F0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1647,7 +1627,7 @@
                   <a14:compatExt spid="_x0000_s8199"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22917387-CB45-4F72-9978-F33AEACADD7C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1714,7 +1694,7 @@
                   <a14:compatExt spid="_x0000_s8200"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{522CB1C5-BF11-4996-BFF6-4201DEA45042}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1781,7 +1761,7 @@
                   <a14:compatExt spid="_x0000_s8201"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8A050E1-85C9-4639-929E-CF7E93B78622}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1848,7 +1828,7 @@
                   <a14:compatExt spid="_x0000_s8202"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{428E7EE9-51D3-4BF4-90B3-0096B6F126F8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1915,7 +1895,7 @@
                   <a14:compatExt spid="_x0000_s8203"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA81056E-0132-476F-8566-CC67A4E7B65C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1982,7 +1962,7 @@
                   <a14:compatExt spid="_x0000_s8204"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F3E9DE1-63FA-4CFE-AAF5-9648CBA80705}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2049,7 +2029,7 @@
                   <a14:compatExt spid="_x0000_s8205"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08702D2E-04ED-4257-9793-E651E02016D5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2116,7 +2096,7 @@
                   <a14:compatExt spid="_x0000_s8206"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED4F4150-A1D0-47D3-AC6D-D209BC7AC0DF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2183,7 +2163,7 @@
                   <a14:compatExt spid="_x0000_s8207"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B77A94A0-0B92-43F2-A5ED-50EFA3A872FB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2250,7 +2230,7 @@
                   <a14:compatExt spid="_x0000_s8208"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2641611D-DAE7-4F19-A426-489F471BF494}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2317,7 +2297,7 @@
                   <a14:compatExt spid="_x0000_s8209"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B565A0BC-4222-408A-A446-0968FD925CDE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2384,7 +2364,7 @@
                   <a14:compatExt spid="_x0000_s8210"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A35727DE-6AE0-4CB2-A6F0-C7F1E43F2691}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2451,7 +2431,7 @@
                   <a14:compatExt spid="_x0000_s8211"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4B3F1E3-CC15-4665-B8CB-47A8C1B100F9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2518,7 +2498,7 @@
                   <a14:compatExt spid="_x0000_s8212"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2678B70-DFEB-4790-A930-DE8C0B8B36B5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2585,7 +2565,7 @@
                   <a14:compatExt spid="_x0000_s8213"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB4E7E6-8423-48A5-B848-A71CBFA857CA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2652,7 +2632,7 @@
                   <a14:compatExt spid="_x0000_s8214"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D46E134D-9D70-4E16-8024-BD300573D4BA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2719,7 +2699,7 @@
                   <a14:compatExt spid="_x0000_s8215"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C4866D8-A76F-462D-B424-A560F70D8F36}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000017200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2786,7 +2766,7 @@
                   <a14:compatExt spid="_x0000_s8216"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7E81F17-7A00-40AC-8B6C-92D6EE5334BA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2853,7 +2833,7 @@
                   <a14:compatExt spid="_x0000_s8217"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DBD28C7-BC35-4D49-BD90-9B38A3FEAB88}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2920,7 +2900,7 @@
                   <a14:compatExt spid="_x0000_s8218"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5338DAD-D315-426D-A9DF-DBD2F391A329}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2987,7 +2967,7 @@
                   <a14:compatExt spid="_x0000_s8219"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AA800FA-E4BE-4BF3-AA81-ED8BE7D4A034}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3054,7 +3034,7 @@
                   <a14:compatExt spid="_x0000_s8220"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A343439-0144-4B9A-94D4-BB16993CFB7B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3121,7 +3101,7 @@
                   <a14:compatExt spid="_x0000_s8221"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56C37682-7828-48AD-8860-71707AE096BE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001D200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3188,7 +3168,7 @@
                   <a14:compatExt spid="_x0000_s8222"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{318E4F88-7455-4C12-A910-E97F53982DE4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3255,7 +3235,7 @@
                   <a14:compatExt spid="_x0000_s8223"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A436A76-332D-42D9-AC13-F486403FCAF5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001F200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3322,7 +3302,7 @@
                   <a14:compatExt spid="_x0000_s8224"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E02D7619-9439-496D-B0DC-BC653A6A35F9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3389,7 +3369,7 @@
                   <a14:compatExt spid="_x0000_s8225"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A921084-1F0E-4D17-8F09-308A71829CE3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000021200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3456,7 +3436,7 @@
                   <a14:compatExt spid="_x0000_s8226"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18664EEF-EE24-49AB-AA8B-69060C841612}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000022200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3523,7 +3503,7 @@
                   <a14:compatExt spid="_x0000_s8227"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{253861F5-69EA-49CA-9534-8F8434668198}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000023200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3590,7 +3570,7 @@
                   <a14:compatExt spid="_x0000_s8228"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD8EA29A-ECDD-4FA7-AD9E-CA624AB95EC3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000024200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3657,7 +3637,7 @@
                   <a14:compatExt spid="_x0000_s8229"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2668B91-CE61-4988-8B9D-9016684386AD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000025200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3724,7 +3704,7 @@
                   <a14:compatExt spid="_x0000_s8230"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{611D6D2D-CA12-4E64-8F56-DB0200C2AE42}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000026200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3791,7 +3771,7 @@
                   <a14:compatExt spid="_x0000_s8231"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{094962D1-0871-4B70-9880-C0E0F1B4CEF8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000027200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3858,7 +3838,7 @@
                   <a14:compatExt spid="_x0000_s8232"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DE09708-8E0A-45F3-BD84-9D0B64FBF80D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000028200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3925,7 +3905,7 @@
                   <a14:compatExt spid="_x0000_s8233"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C02A7BF-0C5D-4791-ACC7-BE79B1A52EBE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000029200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3992,7 +3972,7 @@
                   <a14:compatExt spid="_x0000_s8234"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DA27651-52FC-47AA-A7B8-531F5242EE66}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002A200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4059,7 +4039,7 @@
                   <a14:compatExt spid="_x0000_s8235"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2D907A5-3956-409C-B28A-4C8A3A80111A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002B200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4126,7 +4106,7 @@
                   <a14:compatExt spid="_x0000_s8236"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E32F20AD-B0B2-4525-AE0F-A39C5F7AD103}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002C200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4193,7 +4173,7 @@
                   <a14:compatExt spid="_x0000_s8237"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91024376-803A-424F-9756-76E40B33A78B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002D200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4260,7 +4240,7 @@
                   <a14:compatExt spid="_x0000_s8238"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{532FB6B9-F8D2-4C90-9A9E-3041BF029446}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002E200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4327,7 +4307,7 @@
                   <a14:compatExt spid="_x0000_s8239"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFB605CA-E51F-4E81-97D6-4208FB4D46FE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002F200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4394,7 +4374,7 @@
                   <a14:compatExt spid="_x0000_s8240"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F38D711-7F5B-4E9F-AFFD-1D5C96B9A2C8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000030200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4461,7 +4441,7 @@
                   <a14:compatExt spid="_x0000_s8241"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B4C94F3-D5BA-4EDB-8E78-0608BFA1829E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000031200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4528,7 +4508,7 @@
                   <a14:compatExt spid="_x0000_s8242"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E893F27C-70B5-4195-8300-33B2638B7651}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000032200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4595,7 +4575,7 @@
                   <a14:compatExt spid="_x0000_s8243"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA7F8F5E-455D-4716-B5E6-A81A6783B2EC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000033200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4662,7 +4642,7 @@
                   <a14:compatExt spid="_x0000_s8244"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93DC7BC5-46F3-48FF-B145-634586544A29}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000034200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4729,7 +4709,7 @@
                   <a14:compatExt spid="_x0000_s8245"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{634D3395-0B69-49C4-A1FC-C20C19051A5E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000035200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4796,7 +4776,7 @@
                   <a14:compatExt spid="_x0000_s8246"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73BB2740-D009-4639-B94A-BA85ADADB17A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000036200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4863,7 +4843,7 @@
                   <a14:compatExt spid="_x0000_s8247"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1B501D7-1945-4FDA-93D6-71BC0DCC931F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000037200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4930,7 +4910,7 @@
                   <a14:compatExt spid="_x0000_s8248"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68999E4F-2225-4F2C-A452-BD80E43BDE47}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000038200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4997,7 +4977,7 @@
                   <a14:compatExt spid="_x0000_s8249"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44D1F6D7-2381-46BF-AD92-FE012390794D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000039200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5064,7 +5044,7 @@
                   <a14:compatExt spid="_x0000_s8250"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95A42013-1DB9-4509-AD32-62FC302E07AB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003A200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5131,7 +5111,7 @@
                   <a14:compatExt spid="_x0000_s8251"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A6D4351-F3C5-4A13-BFF7-D98AE32A01A4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003B200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5198,7 +5178,7 @@
                   <a14:compatExt spid="_x0000_s8252"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45372B2A-35DD-40C6-8196-3AC337B58D2F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003C200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5265,7 +5245,7 @@
                   <a14:compatExt spid="_x0000_s8253"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{830E4092-D593-4C6A-B80B-910A5E256A17}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003D200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5332,7 +5312,7 @@
                   <a14:compatExt spid="_x0000_s8254"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4475ED7-0A5D-4E28-A159-9A8297BED331}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003E200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5399,7 +5379,7 @@
                   <a14:compatExt spid="_x0000_s8255"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{915C86E2-E77D-4193-9764-40E94C668C25}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003F200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5466,7 +5446,7 @@
                   <a14:compatExt spid="_x0000_s8256"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFB49299-0F70-41AB-A32A-0E9D8BA06412}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000040200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5533,7 +5513,7 @@
                   <a14:compatExt spid="_x0000_s8257"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B4BE932-F26F-448E-82BC-5B656E0AB1DE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000041200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5600,7 +5580,7 @@
                   <a14:compatExt spid="_x0000_s8258"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63E349A1-52BB-48EE-9BF7-0F8803997922}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000042200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5667,7 +5647,7 @@
                   <a14:compatExt spid="_x0000_s8259"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93360747-1DE7-41F8-8459-38D8A89A2D9F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000043200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5734,7 +5714,7 @@
                   <a14:compatExt spid="_x0000_s8260"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EB82EA5-073D-45E1-8C74-C6FA91A2714B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000044200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5801,7 +5781,7 @@
                   <a14:compatExt spid="_x0000_s8261"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5EA5D25-ABA0-41BE-BAE6-CDB604409512}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000045200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5868,7 +5848,7 @@
                   <a14:compatExt spid="_x0000_s8262"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C218385A-D138-442E-829E-A07C6589561A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000046200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5935,7 +5915,7 @@
                   <a14:compatExt spid="_x0000_s8263"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82BAF65D-2CEC-4BCE-AEF5-ECC81F0B9AA2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000047200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6002,7 +5982,7 @@
                   <a14:compatExt spid="_x0000_s8264"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E74F31FA-233E-4073-AF50-649399DB2B48}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000048200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6069,7 +6049,7 @@
                   <a14:compatExt spid="_x0000_s8265"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96119A35-E6F6-4CA0-AE52-8BFBFCD1ACF2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000049200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6136,7 +6116,7 @@
                   <a14:compatExt spid="_x0000_s8266"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EE76043-7202-4B80-905E-590B8018CEF0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004A200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6203,7 +6183,7 @@
                   <a14:compatExt spid="_x0000_s8267"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9992CB30-5821-4748-8F94-D561F602AB73}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004B200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6270,7 +6250,7 @@
                   <a14:compatExt spid="_x0000_s8268"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F1CA24-99B9-4FBE-9AA6-97C89C759044}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004C200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6337,7 +6317,7 @@
                   <a14:compatExt spid="_x0000_s8269"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A68B73AE-0797-40A5-91B2-BF23551F51AA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004D200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6404,7 +6384,7 @@
                   <a14:compatExt spid="_x0000_s8270"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5EE6EBB-9E9A-416C-975B-81EAB77CECCE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004E200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6471,7 +6451,7 @@
                   <a14:compatExt spid="_x0000_s8271"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34CA87FC-EC87-4FA1-AA42-E3884F23527E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004F200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6538,7 +6518,7 @@
                   <a14:compatExt spid="_x0000_s8272"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03A85E93-2F9E-4301-B083-DE4D3BE63B87}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000050200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6605,7 +6585,7 @@
                   <a14:compatExt spid="_x0000_s8273"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{325C16AA-DB5C-4170-BB87-1535EF98B2B7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000051200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6672,7 +6652,7 @@
                   <a14:compatExt spid="_x0000_s8274"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6893E6D4-FD94-485F-B636-7FC2B72F8A4C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000052200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6739,7 +6719,7 @@
                   <a14:compatExt spid="_x0000_s8275"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC31AF42-98CE-4E33-A758-553369744396}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000053200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6806,7 +6786,7 @@
                   <a14:compatExt spid="_x0000_s8276"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5F94685-A72F-40E5-8129-D7C284B40FDE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000054200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6873,7 +6853,7 @@
                   <a14:compatExt spid="_x0000_s8277"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DE61A1F-BA04-4B8B-A870-0B848141814C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000055200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6940,7 +6920,7 @@
                   <a14:compatExt spid="_x0000_s8278"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1EB1C74-7A5B-49A4-8146-9BC948969761}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000056200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7007,7 +6987,7 @@
                   <a14:compatExt spid="_x0000_s8279"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DE6B9E4-1617-4E0E-842F-D0E385B9E921}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000057200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7074,7 +7054,7 @@
                   <a14:compatExt spid="_x0000_s8280"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFD02281-1690-4B40-9F67-CD7DCCB1C4E1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000058200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7141,7 +7121,7 @@
                   <a14:compatExt spid="_x0000_s8281"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E737D965-26C3-4344-8FF5-416EC271EC50}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000059200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7208,7 +7188,7 @@
                   <a14:compatExt spid="_x0000_s8282"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{942652B1-F926-41E4-A258-4B7B650D87BC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005A200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7275,7 +7255,7 @@
                   <a14:compatExt spid="_x0000_s8283"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC2FD6E4-78D8-4D82-936D-DBA802A9DBDC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005B200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7342,7 +7322,7 @@
                   <a14:compatExt spid="_x0000_s8284"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A916261-15BC-4D17-9839-5C7F3CF22A89}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005C200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7409,7 +7389,7 @@
                   <a14:compatExt spid="_x0000_s8285"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60159883-61ED-49B2-86C1-07B27CB794BE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005D200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7476,7 +7456,7 @@
                   <a14:compatExt spid="_x0000_s8286"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA9E2AD6-A94A-4E98-A08D-5B093F9D831B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005E200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7543,7 +7523,7 @@
                   <a14:compatExt spid="_x0000_s8287"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CA1012E-9969-4BE5-A064-B671F9C7F66F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005F200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7610,7 +7590,7 @@
                   <a14:compatExt spid="_x0000_s8288"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC54A4A8-1906-4439-A810-1C1B7B181DD0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000060200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7677,7 +7657,7 @@
                   <a14:compatExt spid="_x0000_s8289"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF25AA3E-D7F9-4038-8C41-800B30D85025}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000061200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7744,7 +7724,7 @@
                   <a14:compatExt spid="_x0000_s8290"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4003E54B-CD28-4848-B144-1EFC86D26C71}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000062200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7811,7 +7791,7 @@
                   <a14:compatExt spid="_x0000_s8291"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65824700-AE62-48A7-8662-D0CDFCD52864}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000063200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7859,7 +7839,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8294,10 +8274,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -8521,106 +8501,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10819,7 +10799,7 @@
   <dimension ref="B2:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10921,9 +10901,7 @@
       </c>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
-      <c r="T3" s="19" t="s">
-        <v>143</v>
-      </c>
+      <c r="T3" s="4"/>
     </row>
     <row r="4" spans="2:20" ht="51" x14ac:dyDescent="0.2">
       <c r="B4" s="11"/>
@@ -10959,16 +10937,16 @@
         <v>84</v>
       </c>
       <c r="P4" s="2"/>
-      <c r="Q4" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="R4" s="20" t="s">
+      <c r="Q4" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="S4" s="20" t="s">
+      <c r="R4" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="S4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="T4" s="20"/>
+      <c r="T4" s="18"/>
     </row>
     <row r="5" spans="2:20" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B5" s="11"/>
@@ -11004,13 +10982,13 @@
         <v>90</v>
       </c>
       <c r="P5" s="2"/>
-      <c r="Q5" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="R5" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="S5" s="20" t="s">
+      <c r="Q5" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="R5" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="S5" s="18" t="s">
         <v>2</v>
       </c>
       <c r="T5" s="2"/>
@@ -11044,15 +11022,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C4" s="14" t="s">
@@ -11150,15 +11128,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C4" s="14" t="s">
